--- a/Data/Credential/Email validation.xlsx
+++ b/Data/Credential/Email validation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Credential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5FE3B7-61E9-4AD5-9AC7-B2DE992DC7F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02E840-10D4-479A-A81B-BFD2CE7EC334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>email</t>
   </si>
@@ -507,7 +507,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,93 +550,99 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -644,15 +650,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -660,15 +666,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -676,7 +682,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
@@ -684,23 +690,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>20</v>
@@ -708,7 +714,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -716,7 +722,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -724,7 +730,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -732,7 +738,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>20</v>

--- a/Data/Credential/Email validation.xlsx
+++ b/Data/Credential/Email validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Project\gocad-automation-katalon\Data\Credential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02E840-10D4-479A-A81B-BFD2CE7EC334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DBF8EC-819E-4DB2-9709-D3473725522B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>plaintextaddress</t>
   </si>
   <si>
-    <t>Email is not a valid email</t>
-  </si>
-  <si>
     <t>@#@@##@%^%#$@#$@#.com</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>example\ is”especially”not\allowed@email.com</t>
+  </si>
+  <si>
+    <t>E-mail is not a valid email</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0A8FC5-6AC8-4C27-B5D7-99E0ACE5B9B4}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4"/>
     </row>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -621,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -645,151 +645,151 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
